--- a/dani/aidanai.xlsx
+++ b/dani/aidanai.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_10BD971AAE3F04199CF212240496AEF5C0AF8E7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{169EFD0E-0E28-45E1-929C-F42521C052F4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_3870D32CA49E87037E809D29FC1325F7C5A0AD44" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{884ECC3A-FE60-4514-8834-C3692730F7EE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimientos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13889" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13899" uniqueCount="1095">
   <si>
     <t>FECHA</t>
   </si>
@@ -3269,6 +3269,15 @@
   </si>
   <si>
     <t>Traspaso (Entrada)</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
   </si>
   <si>
     <t>Cuenta</t>
@@ -3363,27 +3372,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9C4C598-5501-4105-B3E1-BA524058FC7F}" name="Tabla1" displayName="Tabla1" ref="A1:F2741" totalsRowShown="0">
-  <autoFilter ref="A1:F2741" xr:uid="{A9C4C598-5501-4105-B3E1-BA524058FC7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53DD72AB-5E89-44F7-AD77-135D0FFFB621}" name="TablaMovimientos" displayName="TablaMovimientos" ref="A1:F2743" totalsRowShown="0">
+  <autoFilter ref="A1:F2743" xr:uid="{53DD72AB-5E89-44F7-AD77-135D0FFFB621}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BFC5A682-0BAE-45E0-8E5C-61957A40758C}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{8D7EFB74-93A0-450B-85C0-96F1D4C74CD9}" name="CUENTA"/>
-    <tableColumn id="3" xr3:uid="{A83A567D-E664-4487-A497-D87EE8D895F5}" name="CONCEPTO"/>
-    <tableColumn id="4" xr3:uid="{4AD8EB24-366B-4328-9211-325A78D4FAA7}" name="IMPORTE"/>
-    <tableColumn id="5" xr3:uid="{EA373A5F-ACB3-48B3-A2F7-BF052B7EE1E2}" name="DESCRIPCIÓN"/>
-    <tableColumn id="6" xr3:uid="{AE9E57C7-2B7C-41BB-8933-C78B4546255A}" name="BENEFICIARIO"/>
+    <tableColumn id="1" xr3:uid="{B7BBDC7A-D5C5-4DD6-A0A0-B55B713A54FE}" name="FECHA"/>
+    <tableColumn id="2" xr3:uid="{B969B4DA-0A41-4286-89D1-C0A279F9CDB3}" name="CUENTA"/>
+    <tableColumn id="3" xr3:uid="{2CE3A958-D539-4CDA-8F4C-12685685F17A}" name="CONCEPTO"/>
+    <tableColumn id="4" xr3:uid="{F07F176E-7AB9-48C6-A0D0-0EDF971E945D}" name="IMPORTE"/>
+    <tableColumn id="5" xr3:uid="{EF680FF3-6416-43A1-9AA8-AFF0DB9B99B5}" name="DESCRIPCIÓN"/>
+    <tableColumn id="6" xr3:uid="{2D511515-34F4-4DAE-B481-6886355A8055}" name="BENEFICIARIO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AEE27DF-3497-4C56-B0A3-894EAB5CC1C7}" name="Tabla2" displayName="Tabla2" ref="A1:C61" totalsRowShown="0">
-  <autoFilter ref="A1:C61" xr:uid="{8AEE27DF-3497-4C56-B0A3-894EAB5CC1C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD865EDA-C633-4E6C-B2D5-66A5EDA1FD05}" name="TablaConfig" displayName="TablaConfig" ref="A1:C61" totalsRowShown="0">
+  <autoFilter ref="A1:C61" xr:uid="{DD865EDA-C633-4E6C-B2D5-66A5EDA1FD05}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A4166308-2D59-4BE4-9430-A8F4A17904D1}" name="Cuenta"/>
-    <tableColumn id="2" xr3:uid="{A9E5CBBE-F632-482C-A81B-47BB81B0E0ED}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{B46FE734-4AA7-4563-9021-6F8E6CA19D2A}" name="EsInversion"/>
+    <tableColumn id="1" xr3:uid="{DC943032-F380-48CA-8950-9A218CDE97C4}" name="Cuenta"/>
+    <tableColumn id="2" xr3:uid="{60C6C36D-6C07-4125-AB57-7E9D9F5DB92A}" name="Tipo"/>
+    <tableColumn id="3" xr3:uid="{8DEBF733-F66F-4165-91B3-28D6C42D6A37}" name="EsInversion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3711,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2741"/>
+  <dimension ref="A1:F2743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2731" workbookViewId="0">
-      <selection sqref="A1:F2741"/>
+    <sheetView topLeftCell="A2722" workbookViewId="0">
+      <selection activeCell="E2741" sqref="E2741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58251,16 +58260,16 @@
         <v>1075</v>
       </c>
       <c r="B2727" t="s">
-        <v>163</v>
+        <v>903</v>
       </c>
       <c r="C2727" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D2727">
-        <v>-300</v>
+        <v>6.82</v>
       </c>
       <c r="E2727" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2727" t="s">
         <v>10</v>
@@ -58268,39 +58277,39 @@
     </row>
     <row r="2728" spans="1:6">
       <c r="A2728" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B2728" t="s">
-        <v>337</v>
+        <v>903</v>
       </c>
       <c r="C2728" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2728">
-        <v>300</v>
+        <v>-150</v>
       </c>
       <c r="E2728" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="F2728" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2729" spans="1:6">
       <c r="A2729" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B2729" t="s">
-        <v>25</v>
+        <v>903</v>
       </c>
       <c r="C2729" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2729">
-        <v>-300</v>
+        <v>-39.47</v>
       </c>
       <c r="E2729" t="s">
-        <v>48</v>
+        <v>339</v>
       </c>
       <c r="F2729" t="s">
         <v>10</v>
@@ -58308,19 +58317,19 @@
     </row>
     <row r="2730" spans="1:6">
       <c r="A2730" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B2730" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="C2730" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2730">
-        <v>300</v>
+        <v>-1.4</v>
       </c>
       <c r="E2730" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2730" t="s">
         <v>10</v>
@@ -58328,19 +58337,19 @@
     </row>
     <row r="2731" spans="1:6">
       <c r="A2731" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B2731" t="s">
-        <v>903</v>
+        <v>163</v>
       </c>
       <c r="C2731" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D2731">
-        <v>6.82</v>
+        <v>-300</v>
       </c>
       <c r="E2731" t="s">
-        <v>42</v>
+        <v>1077</v>
       </c>
       <c r="F2731" t="s">
         <v>10</v>
@@ -58351,19 +58360,19 @@
         <v>1076</v>
       </c>
       <c r="B2732" t="s">
-        <v>903</v>
+        <v>337</v>
       </c>
       <c r="C2732" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2732">
-        <v>-150</v>
+        <v>300</v>
       </c>
       <c r="E2732" t="s">
-        <v>152</v>
+        <v>1078</v>
       </c>
       <c r="F2732" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2733" spans="1:6">
@@ -58371,16 +58380,16 @@
         <v>1076</v>
       </c>
       <c r="B2733" t="s">
-        <v>903</v>
+        <v>25</v>
       </c>
       <c r="C2733" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2733">
-        <v>-39.47</v>
+        <v>-300</v>
       </c>
       <c r="E2733" t="s">
-        <v>339</v>
+        <v>1077</v>
       </c>
       <c r="F2733" t="s">
         <v>10</v>
@@ -58391,16 +58400,16 @@
         <v>1076</v>
       </c>
       <c r="B2734" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="C2734" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2734">
-        <v>-1.4</v>
+        <v>300</v>
       </c>
       <c r="E2734" t="s">
-        <v>44</v>
+        <v>1078</v>
       </c>
       <c r="F2734" t="s">
         <v>10</v>
@@ -58408,39 +58417,39 @@
     </row>
     <row r="2735" spans="1:6">
       <c r="A2735" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B2735" t="s">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="C2735" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D2735">
-        <v>-125</v>
+        <v>-4</v>
       </c>
       <c r="E2735" t="s">
-        <v>48</v>
+        <v>585</v>
       </c>
       <c r="F2735" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2736" spans="1:6">
       <c r="A2736" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B2736" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="C2736" t="s">
         <v>48</v>
       </c>
       <c r="D2736">
-        <v>125</v>
+        <v>-806.93</v>
       </c>
       <c r="E2736" t="s">
-        <v>48</v>
+        <v>1077</v>
       </c>
       <c r="F2736" t="s">
         <v>10</v>
@@ -58448,19 +58457,19 @@
     </row>
     <row r="2737" spans="1:6">
       <c r="A2737" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B2737" t="s">
-        <v>163</v>
+        <v>903</v>
       </c>
       <c r="C2737" t="s">
         <v>48</v>
       </c>
       <c r="D2737">
-        <v>-300</v>
+        <v>806.93</v>
       </c>
       <c r="E2737" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F2737" t="s">
         <v>10</v>
@@ -58468,19 +58477,19 @@
     </row>
     <row r="2738" spans="1:6">
       <c r="A2738" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="B2738" t="s">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="C2738" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2738">
-        <v>300</v>
+        <v>-1.4</v>
       </c>
       <c r="E2738" t="s">
-        <v>1078</v>
+        <v>44</v>
       </c>
       <c r="F2738" t="s">
         <v>10</v>
@@ -58488,19 +58497,19 @@
     </row>
     <row r="2739" spans="1:6">
       <c r="A2739" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="B2739" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="C2739" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2739">
-        <v>-300</v>
+        <v>-6</v>
       </c>
       <c r="E2739" t="s">
-        <v>1077</v>
+        <v>89</v>
       </c>
       <c r="F2739" t="s">
         <v>10</v>
@@ -58508,19 +58517,19 @@
     </row>
     <row r="2740" spans="1:6">
       <c r="A2740" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B2740" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="C2740" t="s">
         <v>48</v>
       </c>
       <c r="D2740">
-        <v>300</v>
+        <v>-125</v>
       </c>
       <c r="E2740" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F2740" t="s">
         <v>10</v>
@@ -58528,21 +58537,61 @@
     </row>
     <row r="2741" spans="1:6">
       <c r="A2741" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B2741" t="s">
-        <v>903</v>
+        <v>437</v>
       </c>
       <c r="C2741" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2741">
-        <v>6.82</v>
+        <v>125</v>
       </c>
       <c r="E2741" t="s">
-        <v>42</v>
+        <v>1078</v>
       </c>
       <c r="F2741" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:6">
+      <c r="A2742" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2742" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2742">
+        <v>-175</v>
+      </c>
+      <c r="E2742" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2742" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:6">
+      <c r="A2743" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2743" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2743">
+        <v>175</v>
+      </c>
+      <c r="E2743" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F2743" t="s">
         <v>10</v>
       </c>
     </row>
@@ -58558,26 +58607,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B1" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C1" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -58585,10 +58634,10 @@
         <v>903</v>
       </c>
       <c r="B2" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C2" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -58596,10 +58645,10 @@
         <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C3" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -58607,10 +58656,10 @@
         <v>828</v>
       </c>
       <c r="B4" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C4" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -58618,10 +58667,10 @@
         <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C5" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -58629,10 +58678,10 @@
         <v>711</v>
       </c>
       <c r="B6" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C6" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -58640,10 +58689,10 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C7" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -58651,10 +58700,10 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C8" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -58662,10 +58711,10 @@
         <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C9" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -58673,10 +58722,10 @@
         <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C10" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -58684,10 +58733,10 @@
         <v>641</v>
       </c>
       <c r="B11" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C11" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -58695,10 +58744,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C12" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -58706,10 +58755,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C13" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -58717,10 +58766,10 @@
         <v>443</v>
       </c>
       <c r="B14" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C14" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -58728,10 +58777,10 @@
         <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C15" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -58739,10 +58788,10 @@
         <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C16" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -58750,10 +58799,10 @@
         <v>437</v>
       </c>
       <c r="B17" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C17" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -58761,10 +58810,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C18" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -58772,10 +58821,10 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C19" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -58783,10 +58832,10 @@
         <v>419</v>
       </c>
       <c r="B20" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C20" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -58794,10 +58843,10 @@
         <v>967</v>
       </c>
       <c r="B21" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C21" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -58805,10 +58854,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C22" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -58816,10 +58865,10 @@
         <v>1028</v>
       </c>
       <c r="B23" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C23" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -58827,10 +58876,10 @@
         <v>442</v>
       </c>
       <c r="B24" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C24" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -58838,10 +58887,10 @@
         <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C25" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -58849,10 +58898,10 @@
         <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C26" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -58860,10 +58909,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C27" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -58871,10 +58920,10 @@
         <v>312</v>
       </c>
       <c r="B28" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C28" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -58882,10 +58931,10 @@
         <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C29" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -58893,10 +58942,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C30" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -58904,10 +58953,10 @@
         <v>743</v>
       </c>
       <c r="B31" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C31" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -58915,10 +58964,10 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C32" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -58926,10 +58975,10 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C33" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -58937,10 +58986,10 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C34" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -58948,10 +58997,10 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C35" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -58959,10 +59008,10 @@
         <v>914</v>
       </c>
       <c r="B36" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C36" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -58970,10 +59019,10 @@
         <v>905</v>
       </c>
       <c r="B37" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C37" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -58981,10 +59030,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C38" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -58992,10 +59041,10 @@
         <v>772</v>
       </c>
       <c r="B39" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C39" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -59003,10 +59052,10 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C40" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -59014,10 +59063,10 @@
         <v>457</v>
       </c>
       <c r="B41" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C41" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -59025,10 +59074,10 @@
         <v>658</v>
       </c>
       <c r="B42" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C42" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -59036,10 +59085,10 @@
         <v>515</v>
       </c>
       <c r="B43" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C43" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -59047,10 +59096,10 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C44" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -59058,10 +59107,10 @@
         <v>530</v>
       </c>
       <c r="B45" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C45" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -59069,10 +59118,10 @@
         <v>571</v>
       </c>
       <c r="B46" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C46" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -59080,10 +59129,10 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C47" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -59091,10 +59140,10 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C48" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -59102,10 +59151,10 @@
         <v>506</v>
       </c>
       <c r="B49" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C49" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -59113,10 +59162,10 @@
         <v>503</v>
       </c>
       <c r="B50" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C50" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -59124,10 +59173,10 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C51" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -59135,10 +59184,10 @@
         <v>332</v>
       </c>
       <c r="B52" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C52" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -59146,10 +59195,10 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C53" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -59157,10 +59206,10 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C54" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -59168,10 +59217,10 @@
         <v>858</v>
       </c>
       <c r="B55" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C55" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -59179,10 +59228,10 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C56" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -59190,10 +59239,10 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C57" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -59201,10 +59250,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C58" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -59212,10 +59261,10 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C59" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -59223,10 +59272,10 @@
         <v>253</v>
       </c>
       <c r="B60" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C60" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -59234,10 +59283,10 @@
         <v>623</v>
       </c>
       <c r="B61" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C61" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>

--- a/dani/aidanai.xlsx
+++ b/dani/aidanai.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_3870D32CA49E87037E809D29FC1325F7C5A0AD44" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{884ECC3A-FE60-4514-8834-C3692730F7EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8958FC10-D8CA-48EE-B228-103E71163F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimientos" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Configuracion" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13899" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13932" uniqueCount="1098">
   <si>
     <t>FECHA</t>
   </si>
@@ -3280,13 +3280,10 @@
     <t>2026-02-05</t>
   </si>
   <si>
-    <t>Cuenta</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>EsInversion</t>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>ES_INVERSION</t>
   </si>
   <si>
     <t>Banco</t>
@@ -3313,7 +3310,19 @@
     <t>PlanPensiones</t>
   </si>
   <si>
+    <t>OtrosGastos</t>
+  </si>
+  <si>
     <t>Autocustodia</t>
+  </si>
+  <si>
+    <t>OtrosIngresos</t>
+  </si>
+  <si>
+    <t>VariosCoche</t>
+  </si>
+  <si>
+    <t>VariosVivienda</t>
   </si>
   <si>
     <t>Tarjeta</t>
@@ -3352,8 +3361,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3387,12 +3397,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD865EDA-C633-4E6C-B2D5-66A5EDA1FD05}" name="TablaConfig" displayName="TablaConfig" ref="A1:C61" totalsRowShown="0">
-  <autoFilter ref="A1:C61" xr:uid="{DD865EDA-C633-4E6C-B2D5-66A5EDA1FD05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FCEA5346-BD65-412D-8206-076212A17BCD}" name="Tabla3" displayName="Tabla3" ref="A1:C61" totalsRowShown="0">
+  <autoFilter ref="A1:C61" xr:uid="{FCEA5346-BD65-412D-8206-076212A17BCD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC943032-F380-48CA-8950-9A218CDE97C4}" name="Cuenta"/>
-    <tableColumn id="2" xr3:uid="{60C6C36D-6C07-4125-AB57-7E9D9F5DB92A}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{8DEBF733-F66F-4165-91B3-28D6C42D6A37}" name="EsInversion"/>
+    <tableColumn id="1" xr3:uid="{8286E992-F531-4D75-BBA1-26A2326AC84A}" name="CUENTA"/>
+    <tableColumn id="2" xr3:uid="{046C397E-7CFD-4C83-9C09-19DE76716F6E}" name="TIPO"/>
+    <tableColumn id="3" xr3:uid="{BDED4BF6-4C1C-404A-8D9E-6DFE45F8A923}" name="ES_INVERSION"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0983D73-AB87-4F73-BA17-05DCB28FA235}" name="Tabla4" displayName="Tabla4" ref="E1:E30" totalsRowShown="0">
+  <autoFilter ref="E1:E30" xr:uid="{F0983D73-AB87-4F73-BA17-05DCB28FA235}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{EA78F169-B536-4897-A1DC-889A43419EA2}" name="CONCEPTO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A5CE1417-6BC8-4512-8314-6C10252212E3}" name="Tabla5" displayName="Tabla5" ref="G1:G4" totalsRowShown="0">
+  <autoFilter ref="G1:G4" xr:uid="{A5CE1417-6BC8-4512-8314-6C10252212E3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{95209A87-7D74-456F-A1EE-A0DF5145ABC1}" name="BENEFICIARIO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3723,7 +3753,7 @@
   <dimension ref="A1:F2743"/>
   <sheetViews>
     <sheetView topLeftCell="A2722" workbookViewId="0">
-      <selection activeCell="E2741" sqref="E2741"/>
+      <selection activeCell="A2730" sqref="A2730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58323,13 +58353,13 @@
         <v>163</v>
       </c>
       <c r="C2730" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2730">
-        <v>-1.4</v>
+        <v>-300</v>
       </c>
       <c r="E2730" t="s">
-        <v>44</v>
+        <v>1077</v>
       </c>
       <c r="F2730" t="s">
         <v>10</v>
@@ -58340,16 +58370,16 @@
         <v>1076</v>
       </c>
       <c r="B2731" t="s">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="C2731" t="s">
         <v>48</v>
       </c>
       <c r="D2731">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E2731" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F2731" t="s">
         <v>10</v>
@@ -58360,16 +58390,16 @@
         <v>1076</v>
       </c>
       <c r="B2732" t="s">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="C2732" t="s">
         <v>48</v>
       </c>
       <c r="D2732">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="E2732" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F2732" t="s">
         <v>10</v>
@@ -58380,16 +58410,16 @@
         <v>1076</v>
       </c>
       <c r="B2733" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C2733" t="s">
         <v>48</v>
       </c>
       <c r="D2733">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E2733" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F2733" t="s">
         <v>10</v>
@@ -58397,22 +58427,22 @@
     </row>
     <row r="2734" spans="1:6">
       <c r="A2734" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B2734" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="C2734" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D2734">
-        <v>300</v>
+        <v>-4</v>
       </c>
       <c r="E2734" t="s">
-        <v>1078</v>
+        <v>585</v>
       </c>
       <c r="F2734" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2735" spans="1:6">
@@ -58420,19 +58450,19 @@
         <v>1079</v>
       </c>
       <c r="B2735" t="s">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="C2735" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D2735">
-        <v>-4</v>
+        <v>-806.83</v>
       </c>
       <c r="E2735" t="s">
-        <v>585</v>
+        <v>1077</v>
       </c>
       <c r="F2735" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2736" spans="1:6">
@@ -58440,16 +58470,16 @@
         <v>1079</v>
       </c>
       <c r="B2736" t="s">
-        <v>337</v>
+        <v>903</v>
       </c>
       <c r="C2736" t="s">
         <v>48</v>
       </c>
       <c r="D2736">
-        <v>-806.93</v>
+        <v>806.83</v>
       </c>
       <c r="E2736" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F2736" t="s">
         <v>10</v>
@@ -58457,19 +58487,19 @@
     </row>
     <row r="2737" spans="1:6">
       <c r="A2737" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B2737" t="s">
-        <v>903</v>
+        <v>163</v>
       </c>
       <c r="C2737" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2737">
-        <v>806.93</v>
+        <v>-1.4</v>
       </c>
       <c r="E2737" t="s">
-        <v>1078</v>
+        <v>44</v>
       </c>
       <c r="F2737" t="s">
         <v>10</v>
@@ -58483,13 +58513,13 @@
         <v>163</v>
       </c>
       <c r="C2738" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D2738">
-        <v>-1.4</v>
+        <v>-6</v>
       </c>
       <c r="E2738" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F2738" t="s">
         <v>10</v>
@@ -58497,19 +58527,19 @@
     </row>
     <row r="2739" spans="1:6">
       <c r="A2739" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B2739" t="s">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="C2739" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2739">
-        <v>-6</v>
+        <v>-125</v>
       </c>
       <c r="E2739" t="s">
-        <v>89</v>
+        <v>1077</v>
       </c>
       <c r="F2739" t="s">
         <v>10</v>
@@ -58520,16 +58550,16 @@
         <v>1081</v>
       </c>
       <c r="B2740" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="C2740" t="s">
         <v>48</v>
       </c>
       <c r="D2740">
-        <v>-125</v>
+        <v>125</v>
       </c>
       <c r="E2740" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F2740" t="s">
         <v>10</v>
@@ -58540,16 +58570,16 @@
         <v>1081</v>
       </c>
       <c r="B2741" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="C2741" t="s">
         <v>48</v>
       </c>
       <c r="D2741">
-        <v>125</v>
+        <v>-175</v>
       </c>
       <c r="E2741" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F2741" t="s">
         <v>10</v>
@@ -58560,36 +58590,36 @@
         <v>1081</v>
       </c>
       <c r="B2742" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="C2742" t="s">
         <v>48</v>
       </c>
       <c r="D2742">
-        <v>-175</v>
+        <v>175</v>
       </c>
       <c r="E2742" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F2742" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2743" spans="1:6">
-      <c r="A2743" t="s">
-        <v>1081</v>
+      <c r="A2743" s="1">
+        <v>46058</v>
       </c>
       <c r="B2743" t="s">
-        <v>422</v>
+        <v>163</v>
       </c>
       <c r="C2743" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2743">
-        <v>175</v>
+        <v>-7.5</v>
       </c>
       <c r="E2743" t="s">
-        <v>1078</v>
+        <v>44</v>
       </c>
       <c r="F2743" t="s">
         <v>10</v>
@@ -58604,241 +58634,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD79544-0CCD-47D7-B849-BDD96ABDCDC3}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection sqref="A1:C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>1082</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1083</v>
       </c>
-      <c r="C1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>903</v>
       </c>
       <c r="B2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C2" t="s">
         <v>1085</v>
       </c>
-      <c r="C2" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>337</v>
       </c>
       <c r="B3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C3" t="s">
         <v>1085</v>
       </c>
-      <c r="C3" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>828</v>
       </c>
       <c r="B4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C4" t="s">
         <v>1087</v>
       </c>
-      <c r="C4" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>153</v>
       </c>
       <c r="B5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C5" t="s">
         <v>1087</v>
       </c>
-      <c r="C5" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>711</v>
       </c>
       <c r="B6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C6" t="s">
         <v>1087</v>
       </c>
-      <c r="C6" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C7" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>133</v>
       </c>
       <c r="B8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C8" t="s">
         <v>1087</v>
       </c>
-      <c r="C8" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>214</v>
       </c>
       <c r="B9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C9" t="s">
         <v>1087</v>
       </c>
-      <c r="C9" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C10" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>641</v>
       </c>
       <c r="B11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C11" t="s">
         <v>1087</v>
       </c>
-      <c r="C11" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C12" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>1085</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C13" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>443</v>
       </c>
       <c r="B14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C14" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C15" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>437</v>
       </c>
       <c r="B17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C17" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C18" t="s">
         <v>1085</v>
       </c>
-      <c r="C18" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C19" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>419</v>
       </c>
       <c r="B20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C20" t="s">
         <v>1087</v>
       </c>
-      <c r="C20" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>967</v>
       </c>
@@ -58846,21 +58950,27 @@
         <v>1093</v>
       </c>
       <c r="C21" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C22" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>1028</v>
       </c>
@@ -58868,106 +58978,130 @@
         <v>1093</v>
       </c>
       <c r="C23" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>442</v>
       </c>
       <c r="B24" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C24" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E24" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>163</v>
       </c>
       <c r="B25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C25" t="s">
         <v>1085</v>
       </c>
-      <c r="C25" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C26" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C27" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>312</v>
       </c>
       <c r="B28" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C28" t="s">
         <v>1085</v>
       </c>
-      <c r="C28" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C29" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C30" t="s">
         <v>1085</v>
       </c>
-      <c r="C30" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>743</v>
       </c>
       <c r="B31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C31" t="s">
         <v>1085</v>
       </c>
-      <c r="C31" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C32" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -58975,10 +59109,10 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C33" t="s">
         <v>1085</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -58986,10 +59120,10 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C34" t="s">
         <v>1085</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -58997,10 +59131,10 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -59008,10 +59142,10 @@
         <v>914</v>
       </c>
       <c r="B36" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C36" t="s">
         <v>1087</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -59019,10 +59153,10 @@
         <v>905</v>
       </c>
       <c r="B37" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C37" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -59030,10 +59164,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C38" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -59041,10 +59175,10 @@
         <v>772</v>
       </c>
       <c r="B39" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C39" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -59052,10 +59186,10 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C40" t="s">
         <v>1085</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -59063,10 +59197,10 @@
         <v>457</v>
       </c>
       <c r="B41" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C41" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -59074,10 +59208,10 @@
         <v>658</v>
       </c>
       <c r="B42" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C42" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -59085,10 +59219,10 @@
         <v>515</v>
       </c>
       <c r="B43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C43" t="s">
         <v>1087</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -59096,10 +59230,10 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C44" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -59107,10 +59241,10 @@
         <v>530</v>
       </c>
       <c r="B45" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C45" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -59118,10 +59252,10 @@
         <v>571</v>
       </c>
       <c r="B46" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C46" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -59129,10 +59263,10 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C47" t="s">
         <v>1085</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -59140,10 +59274,10 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C48" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -59151,10 +59285,10 @@
         <v>506</v>
       </c>
       <c r="B49" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C49" t="s">
         <v>1085</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -59162,10 +59296,10 @@
         <v>503</v>
       </c>
       <c r="B50" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C50" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -59173,10 +59307,10 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C51" t="s">
         <v>1085</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -59184,10 +59318,10 @@
         <v>332</v>
       </c>
       <c r="B52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C52" t="s">
         <v>1085</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -59195,10 +59329,10 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C53" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -59206,10 +59340,10 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C54" t="s">
         <v>1085</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -59217,10 +59351,10 @@
         <v>858</v>
       </c>
       <c r="B55" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C55" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -59228,10 +59362,10 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C56" t="s">
         <v>1085</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -59239,10 +59373,10 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C57" t="s">
         <v>1085</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -59250,10 +59384,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C58" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -59261,10 +59395,10 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C59" t="s">
         <v>1085</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -59272,10 +59406,10 @@
         <v>253</v>
       </c>
       <c r="B60" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C60" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -59283,16 +59417,18 @@
         <v>623</v>
       </c>
       <c r="B61" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C61" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <tableParts count="1">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/dani/aidanai.xlsx
+++ b/dani/aidanai.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14470" uniqueCount="3604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14473" uniqueCount="3607">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -10830,10 +10830,19 @@
     <t xml:space="preserve">FRECUENCIA</t>
   </si>
   <si>
+    <t xml:space="preserve">DIAS_SEMANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO_REGLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTA_DESTINO</t>
+  </si>
+  <si>
     <t xml:space="preserve">IMPORTE</t>
   </si>
   <si>
-    <t xml:space="preserve">DIAS_SEMANA</t>
+    <t xml:space="preserve">DESCRIPCION</t>
   </si>
 </sst>
 </file>
@@ -10910,7 +10919,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10924,10 +10933,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11126,7 +11131,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.14"/>
@@ -76758,7 +76763,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.5"/>
@@ -77578,22 +77583,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -77607,19 +77615,28 @@
         <v>3601</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3603</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3584</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3602</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3605</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3587</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3588</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>3603</v>
+      <c r="K1" s="0" t="s">
+        <v>3606</v>
       </c>
     </row>
   </sheetData>
